--- a/references/Dating.xlsx
+++ b/references/Dating.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wodah\Documents\.Woda\Projects\Dating\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8F8585-ED98-4014-A314-0EEF2A5B075E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D167A290-43B6-44B0-BE94-AEC8C03F6C18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="585" windowWidth="20610" windowHeight="14355" activeTab="1" xr2:uid="{78A2A3F8-0A39-47A2-96E5-D1FFE72D8D4A}"/>
+    <workbookView xWindow="2100" yWindow="480" windowWidth="20610" windowHeight="14355" xr2:uid="{78A2A3F8-0A39-47A2-96E5-D1FFE72D8D4A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Develop" sheetId="4" r:id="rId2"/>
-    <sheet name="Profile" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="Overview" sheetId="2" r:id="rId5"/>
-    <sheet name="Database" sheetId="3" r:id="rId6"/>
+    <sheet name="Plan" sheetId="4" r:id="rId1"/>
+    <sheet name="Overview" sheetId="2" r:id="rId2"/>
+    <sheet name="Database" sheetId="3" r:id="rId3"/>
+    <sheet name="Profile" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">Database!$C$1:$R$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Develop!$C$3:$I$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Overview!$C$3:$P$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Database!$C$1:$R$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Overview!$C$3:$P$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Plan!$B$1:$H$20</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="171">
   <si>
     <t>Questionaire</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Profile</t>
   </si>
   <si>
-    <t>DB Answers</t>
-  </si>
-  <si>
     <t>Profile Page</t>
   </si>
   <si>
@@ -184,9 +181,6 @@
     <t>Parameters</t>
   </si>
   <si>
-    <t>User Id</t>
-  </si>
-  <si>
     <t>login Name</t>
   </si>
   <si>
@@ -361,9 +355,6 @@
     <t>Api log in</t>
   </si>
   <si>
-    <t>profile DB</t>
-  </si>
-  <si>
     <t>Profile Input</t>
   </si>
   <si>
@@ -373,18 +364,12 @@
     <t>API Post</t>
   </si>
   <si>
-    <t>Planning Framework</t>
-  </si>
-  <si>
     <t>Overview</t>
   </si>
   <si>
     <t>D.O.B</t>
   </si>
   <si>
-    <t>Parameters DB</t>
-  </si>
-  <si>
     <t>Parameters Selection</t>
   </si>
   <si>
@@ -475,9 +460,6 @@
     <t>=&gt; Like</t>
   </si>
   <si>
-    <t>Landing Screen:</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -502,13 +484,70 @@
     <t>List</t>
   </si>
   <si>
-    <t>Match DB</t>
-  </si>
-  <si>
     <t>USER UUID</t>
   </si>
   <si>
-    <t>Check</t>
+    <t>Main DB</t>
+  </si>
+  <si>
+    <t>profile Table</t>
+  </si>
+  <si>
+    <t>Parameters Table</t>
+  </si>
+  <si>
+    <t>Answer Table</t>
+  </si>
+  <si>
+    <t>Match Table</t>
+  </si>
+  <si>
+    <t>Questionaire Table</t>
+  </si>
+  <si>
+    <t>Profile Table</t>
+  </si>
+  <si>
+    <t>UUID Table</t>
+  </si>
+  <si>
+    <t>Team Workflow Planning Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target </t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Qi Feng</t>
+  </si>
+  <si>
+    <t>Jeff Woda</t>
+  </si>
+  <si>
+    <t>Alex Gold</t>
+  </si>
+  <si>
+    <t>Start up</t>
+  </si>
+  <si>
+    <t>React App Framework Load</t>
+  </si>
+  <si>
+    <t>Heroku Deployment and final Testing</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Jayln Campbell</t>
+  </si>
+  <si>
+    <t>Alexander Marzullo</t>
   </si>
 </sst>
 </file>
@@ -590,7 +629,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,8 +714,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="47">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1174,11 +1225,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDot">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashDot">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDot">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashDot">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDot">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashDot">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="mediumDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1386,10 +1594,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1448,7 +1652,6 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1458,11 +1661,160 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="59" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1482,71 +1834,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Smiley Face 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B1697B-86D3-431D-B5D6-80C63AF7FA4F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="781050" y="1428750"/>
-          <a:ext cx="266700" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="smileyFace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2307,7 +2594,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3032,505 +3319,429 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E7D01C-CDDC-4069-BB2D-9B21D940A6DD}">
-  <dimension ref="C4:J24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0A940F-4852-4CCF-B042-C2472467ADBA}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F4">
-        <v>222000</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F5">
-        <f>F4*0.01</f>
-        <v>2220</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F6">
-        <f>F4*0.04</f>
-        <v>8880</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F7">
-        <f>F4*0.05</f>
-        <v>11100</v>
-      </c>
-      <c r="J7">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J9">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J10">
-        <f>SUM(J7:J9)</f>
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>690000</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="1">
+    <row r="1" spans="2:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="E1" s="80" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E2" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D4" s="128" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="128" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D5" s="128" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="142"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="144" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="144" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="144" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="144" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="145" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="139" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="129" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="129" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="129" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="146" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" s="137" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="140"/>
+      <c r="C8" s="129" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="1">
+        <v>44287</v>
+      </c>
+      <c r="H8" s="138">
+        <v>44287</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
         <f ca="1">TODAY()</f>
-        <v>44287</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <f>C11*0.04</f>
-        <v>27600</v>
-      </c>
-      <c r="F13" s="2">
-        <f ca="1">F12+90</f>
-        <v>44377</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="F14" s="1">
-        <f ca="1">F12+35</f>
-        <v>44322</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J16">
-        <v>200.15</v>
-      </c>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="J17">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="J18">
-        <f>J17+J16</f>
-        <v>1875.15</v>
-      </c>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F20">
-        <v>222222</v>
-      </c>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F22">
-        <f>F20*0.0275</f>
-        <v>6111.1050000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F23">
-        <f>F22*0.35</f>
-        <v>2138.8867500000001</v>
-      </c>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F24">
-        <f>F22-F23</f>
-        <v>3972.2182500000004</v>
-      </c>
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="120" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="1">
+        <v>44292</v>
+      </c>
+      <c r="H9" s="138"/>
+      <c r="I9">
+        <f ca="1">IF(H9="",IF($J$8&gt;G9,1,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="121"/>
+      <c r="C10" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="1">
+        <v>44292</v>
+      </c>
+      <c r="H10" s="55"/>
+      <c r="I10">
+        <f t="shared" ref="I10:I20" ca="1" si="0">IF(H10="",IF($J$8&gt;G10,1,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="122"/>
+      <c r="C11" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="1">
+        <v>44294</v>
+      </c>
+      <c r="H11" s="55"/>
+      <c r="I11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="123" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="1">
+        <v>44296</v>
+      </c>
+      <c r="H12" s="55"/>
+      <c r="I12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="124"/>
+      <c r="C13" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="1">
+        <v>44299</v>
+      </c>
+      <c r="H13" s="55"/>
+      <c r="I13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="125"/>
+      <c r="C14" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="95"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="1">
+        <v>44301</v>
+      </c>
+      <c r="H14" s="55"/>
+      <c r="I14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="126"/>
+      <c r="C15" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="1">
+        <v>44301</v>
+      </c>
+      <c r="H15" s="55"/>
+      <c r="I15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="126" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="99"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="1">
+        <v>44301</v>
+      </c>
+      <c r="H16" s="55"/>
+      <c r="I16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="126"/>
+      <c r="C17" s="101" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="98" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="1">
+        <v>44301</v>
+      </c>
+      <c r="H17" s="55"/>
+      <c r="I17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="127"/>
+      <c r="C18" s="102" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="103" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="104" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="1">
+        <v>44301</v>
+      </c>
+      <c r="H18" s="55"/>
+      <c r="I18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="131"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="148"/>
+      <c r="G19" s="1">
+        <v>44303</v>
+      </c>
+      <c r="H19" s="141"/>
+      <c r="I19">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="134"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="149"/>
+      <c r="G20" s="150">
+        <v>44306</v>
+      </c>
+      <c r="H20" s="151"/>
+      <c r="I20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>I9=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:G19">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>I10=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0A940F-4852-4CCF-B042-C2472467ADBA}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B3:H25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="E3" s="80" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E4" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="93" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="93" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="91" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="76" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="78" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="79" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="81" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" s="82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" s="84" t="s">
-        <v>118</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="85" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="86" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" s="87" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="96" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="97"/>
-      <c r="F14" s="98"/>
-    </row>
-    <row r="15" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="99" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="100" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="101"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16" s="102" t="s">
-        <v>130</v>
-      </c>
-      <c r="H16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="103" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="F17" s="100" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="3:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="104" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="105" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="105" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="106" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="3:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="3:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="3:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="84" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CFFAAF-81CA-40A5-B8AB-14E374916712}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="50.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="92" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8DFCEE-061A-480D-B5C6-F2C62A41425F}">
-  <dimension ref="D3:G11"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="F3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E10" t="str">
-        <f>E4</f>
-        <v>Suggested Match</v>
-      </c>
-    </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" t="str">
-        <f>E5</f>
-        <v>Read Bio</v>
-      </c>
-      <c r="F11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3319C4A-515C-450E-8448-4156FB499134}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3538,7 +3749,7 @@
   <dimension ref="C3:Q26"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:P23"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3565,11 +3776,11 @@
       <c r="K4" s="11"/>
       <c r="L4" s="5"/>
       <c r="N4" s="38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O4" s="18"/>
       <c r="P4" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3577,19 +3788,19 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="7"/>
       <c r="N5" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O5" s="18"/>
       <c r="P5" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3597,20 +3808,20 @@
       <c r="F6" s="6"/>
       <c r="G6" s="12"/>
       <c r="H6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="L6" s="7"/>
       <c r="N6" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
@@ -3627,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
@@ -3635,104 +3846,106 @@
     <row r="8" spans="3:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="49"/>
       <c r="F8" s="17" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="114" t="s">
-        <v>103</v>
-      </c>
-      <c r="J8" s="118"/>
-      <c r="K8" s="119" t="s">
-        <v>25</v>
+      <c r="H8" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="I8" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="115"/>
+      <c r="K8" s="116" t="s">
+        <v>24</v>
       </c>
       <c r="L8" s="20" t="s">
         <v>15</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
     </row>
     <row r="9" spans="3:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="49"/>
-      <c r="F9" s="107" t="s">
-        <v>152</v>
+      <c r="F9" s="105" t="s">
+        <v>146</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="I9" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="109"/>
+      <c r="J9" s="107"/>
       <c r="K9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="120" t="s">
-        <v>48</v>
+        <v>16</v>
+      </c>
+      <c r="L9" s="117" t="s">
+        <v>47</v>
       </c>
       <c r="O9" s="18"/>
     </row>
     <row r="10" spans="3:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="49"/>
-      <c r="F10" s="107" t="s">
-        <v>153</v>
+      <c r="F10" s="105" t="s">
+        <v>147</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="I10" s="113" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" s="111" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="108" t="s">
         <v>1</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N10" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O10" s="18"/>
     </row>
     <row r="11" spans="3:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="111" t="s">
+        <v>153</v>
+      </c>
+      <c r="I11" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="112"/>
+      <c r="J11" s="110"/>
       <c r="K11" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O11" s="18"/>
       <c r="P11" s="18"/>
     </row>
     <row r="12" spans="3:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="19"/>
@@ -3744,22 +3957,22 @@
       <c r="K12" s="12"/>
       <c r="L12" s="20"/>
       <c r="N12" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="3:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="20"/>
       <c r="K13" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L13" s="20"/>
       <c r="N13" s="36"/>
@@ -3769,7 +3982,7 @@
     </row>
     <row r="14" spans="3:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="19"/>
@@ -3779,14 +3992,14 @@
         <v>3</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L14" s="20"/>
       <c r="Q14" s="36"/>
     </row>
     <row r="15" spans="3:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="19"/>
@@ -3796,7 +4009,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L15" s="20"/>
       <c r="Q15" s="36"/>
@@ -3823,7 +4036,7 @@
         <v>8</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" s="20"/>
     </row>
@@ -3840,7 +4053,7 @@
         <v>9</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="20"/>
     </row>
@@ -3854,10 +4067,10 @@
         <v>5</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L19" s="20"/>
     </row>
@@ -3917,22 +4130,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B17D3A9-07FE-487B-90F9-ABA82D7BC820}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="C1:P38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="2.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
@@ -3940,37 +4153,37 @@
   <sheetData>
     <row r="1" spans="3:16" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="3:16" x14ac:dyDescent="0.25">
       <c r="E2" s="59" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F3" s="64" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="O3" s="51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F4" s="65" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="O4" s="66"/>
       <c r="P4" s="53"/>
@@ -3986,17 +4199,17 @@
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="E7" s="58" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="F7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="O7" s="67"/>
       <c r="P7" s="55"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F8" s="88" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G8" s="89"/>
       <c r="H8" s="60"/>
@@ -4010,13 +4223,13 @@
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F9" s="62" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -4026,15 +4239,15 @@
       <c r="O9" s="67"/>
       <c r="P9" s="55"/>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F10" s="62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -4044,12 +4257,15 @@
       <c r="O10" s="67"/>
       <c r="P10" s="55"/>
     </row>
-    <row r="11" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C11" s="118" t="s">
+        <v>150</v>
+      </c>
       <c r="F11" s="62" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -4061,62 +4277,62 @@
       <c r="P11" s="57"/>
     </row>
     <row r="12" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="117" t="s">
-        <v>156</v>
+      <c r="C12" s="119" t="s">
+        <v>149</v>
       </c>
       <c r="F12" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="I12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="J12" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>60</v>
-      </c>
       <c r="K12" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="55"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F13" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="J13" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="12" t="s">
+      <c r="L13" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="M13" s="55" t="s">
         <v>71</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="55" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F14" s="62" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -4127,10 +4343,10 @@
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F15" s="63" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G15" s="72" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H15" s="61"/>
       <c r="I15" s="61"/>
@@ -4144,16 +4360,16 @@
     </row>
     <row r="18" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E18" s="73" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="F18" s="88" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G18" s="89"/>
     </row>
     <row r="19" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F19" s="52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G19" s="60">
         <v>20</v>
@@ -4162,41 +4378,41 @@
         <v>25</v>
       </c>
       <c r="I19" s="69" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F20" s="54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I20" s="70" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F21" s="54" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="70" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F22" s="56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G22" s="61"/>
       <c r="H22" s="61"/>
       <c r="I22" s="71" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="5:15" x14ac:dyDescent="0.25">
@@ -4204,53 +4420,53 @@
     </row>
     <row r="24" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E24" s="73" t="s">
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F25" s="88" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G25" s="89"/>
       <c r="O25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F26" s="66" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G26" s="60" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H26" s="60"/>
       <c r="I26" s="53"/>
       <c r="K26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F27" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>85</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="55"/>
       <c r="O27" s="51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F28" s="67" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="55"/>
       <c r="O28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="5:15" x14ac:dyDescent="0.25">
@@ -4259,70 +4475,70 @@
       <c r="H29" s="61"/>
       <c r="I29" s="57"/>
       <c r="O29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E31" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="F31" s="116" t="s">
-        <v>55</v>
+        <v>154</v>
+      </c>
+      <c r="F31" s="114" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G32" s="10" t="b">
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G33" s="10" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G34" s="10" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I34" s="90" t="b">
         <v>1</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E35" s="115"/>
+      <c r="E35" s="113"/>
       <c r="F35" s="37"/>
     </row>
     <row r="36" spans="5:10" x14ac:dyDescent="0.25">
@@ -4339,7 +4555,252 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="82" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CFFAAF-81CA-40A5-B8AB-14E374916712}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="92" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8DFCEE-061A-480D-B5C6-F2C62A41425F}">
+  <dimension ref="D3:G11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E10" t="str">
+        <f>E4</f>
+        <v>Suggested Match</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" t="str">
+        <f>E5</f>
+        <v>Read Bio</v>
+      </c>
+      <c r="F11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E7D01C-CDDC-4069-BB2D-9B21D940A6DD}">
+  <dimension ref="C4:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>222000</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f>F4*0.01</f>
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f>F4*0.04</f>
+        <v>8880</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f>F4*0.05</f>
+        <v>11100</v>
+      </c>
+      <c r="J7">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f>SUM(J7:J9)</f>
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>690000</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="1">
+        <f ca="1">TODAY()</f>
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>C11*0.04</f>
+        <v>27600</v>
+      </c>
+      <c r="F13" s="2">
+        <f ca="1">F12+90</f>
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <f ca="1">F12+35</f>
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>200.15</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f>J17+J16</f>
+        <v>1875.15</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>222222</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f>F20*0.0275</f>
+        <v>6111.1050000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f>F22*0.35</f>
+        <v>2138.8867500000001</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f>F22-F23</f>
+        <v>3972.2182500000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/references/Dating.xlsx
+++ b/references/Dating.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wodah\Documents\.Woda\Projects\Dating\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D167A290-43B6-44B0-BE94-AEC8C03F6C18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50979C5D-B583-46F2-BF56-5CA1976E0731}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="480" windowWidth="20610" windowHeight="14355" xr2:uid="{78A2A3F8-0A39-47A2-96E5-D1FFE72D8D4A}"/>
+    <workbookView xWindow="2445" yWindow="825" windowWidth="20610" windowHeight="14355" activeTab="1" xr2:uid="{78A2A3F8-0A39-47A2-96E5-D1FFE72D8D4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="4" r:id="rId1"/>
@@ -1741,55 +1741,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -3325,8 +3277,8 @@
   </sheetPr>
   <dimension ref="B1:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3337,6 +3289,7 @@
     <col min="6" max="6" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="21" x14ac:dyDescent="0.25">
@@ -3430,7 +3383,7 @@
       </c>
       <c r="J8" s="1">
         <f ca="1">TODAY()</f>
-        <v>44288</v>
+        <v>44289</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3727,7 +3680,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>I9=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3748,8 +3701,8 @@
   </sheetPr>
   <dimension ref="C3:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4137,8 +4090,8 @@
   </sheetPr>
   <dimension ref="C1:P38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4738,7 +4691,7 @@
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F12" s="1">
         <f ca="1">TODAY()</f>
-        <v>44288</v>
+        <v>44289</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
@@ -4748,7 +4701,7 @@
       </c>
       <c r="F13" s="2">
         <f ca="1">F12+90</f>
-        <v>44378</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
@@ -4757,7 +4710,7 @@
       </c>
       <c r="F14" s="1">
         <f ca="1">F12+35</f>
-        <v>44323</v>
+        <v>44324</v>
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">

--- a/references/Dating.xlsx
+++ b/references/Dating.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wodah\Documents\.Woda\Projects\Dating\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50979C5D-B583-46F2-BF56-5CA1976E0731}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D50D26-F6E3-4D91-A486-EC7C839FB11C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="825" windowWidth="20610" windowHeight="14355" activeTab="1" xr2:uid="{78A2A3F8-0A39-47A2-96E5-D1FFE72D8D4A}"/>
+    <workbookView xWindow="5910" yWindow="285" windowWidth="20610" windowHeight="14355" activeTab="2" xr2:uid="{78A2A3F8-0A39-47A2-96E5-D1FFE72D8D4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="173">
   <si>
     <t>Questionaire</t>
   </si>
@@ -181,12 +181,6 @@
     <t>Parameters</t>
   </si>
   <si>
-    <t>login Name</t>
-  </si>
-  <si>
-    <t>Screen Name</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -268,15 +262,6 @@
     <t>various</t>
   </si>
   <si>
-    <t>(check availability)</t>
-  </si>
-  <si>
-    <t>Screen Names</t>
-  </si>
-  <si>
-    <t>availability</t>
-  </si>
-  <si>
     <t>question 1</t>
   </si>
   <si>
@@ -463,9 +448,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
     <t xml:space="preserve">login Name </t>
   </si>
   <si>
@@ -548,6 +530,30 @@
   </si>
   <si>
     <t>Alexander Marzullo</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>user Name</t>
+  </si>
+  <si>
+    <t>Mary@gmail.com</t>
+  </si>
+  <si>
+    <t>********</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique </t>
+  </si>
+  <si>
+    <t>(forces unique screen names for all users by default)</t>
+  </si>
+  <si>
+    <t>UserName Table</t>
+  </si>
+  <si>
+    <t>check for availabliltiy user experience table</t>
   </si>
 </sst>
 </file>
@@ -557,7 +563,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,6 +630,14 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -727,7 +741,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -1382,11 +1396,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1737,8 +1763,21 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="59" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -2550,59 +2589,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5823D461-1651-46CD-AA63-CA13F4500146}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6029325" y="1600200"/>
-          <a:ext cx="3067050" cy="57150"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>26</xdr:row>
@@ -2947,6 +2933,112 @@
         <a:xfrm>
           <a:off x="1905000" y="2314575"/>
           <a:ext cx="1752600" cy="3514725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A96A671-13E6-431C-9DFF-2B157851322E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5848350" y="342900"/>
+          <a:ext cx="3695700" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6309D6-1C2E-4A4B-8D2A-4C1C91736249}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5876925" y="419100"/>
+          <a:ext cx="3676650" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3294,80 +3386,80 @@
   <sheetData>
     <row r="1" spans="2:10" ht="21" x14ac:dyDescent="0.25">
       <c r="E1" s="80" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E2" s="18" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D4" s="128" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E4" s="128" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F4" s="128" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D5" s="128" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E5" s="128"/>
       <c r="F5" s="128" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="142"/>
       <c r="C6" s="143"/>
       <c r="D6" s="144" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E6" s="144" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F6" s="144" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G6" s="144" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H6" s="145" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="139" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C7" s="129" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D7" s="129" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E7" s="129" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F7" s="146" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H7" s="137" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="140"/>
       <c r="C8" s="129" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D8" s="130"/>
       <c r="E8" s="130"/>
@@ -3388,19 +3480,19 @@
     </row>
     <row r="9" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="120" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C9" s="91" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D9" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="76" t="s">
         <v>98</v>
-      </c>
-      <c r="E9" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="76" t="s">
-        <v>103</v>
       </c>
       <c r="G9" s="1">
         <v>44292</v>
@@ -3414,16 +3506,16 @@
     <row r="10" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="121"/>
       <c r="C10" s="77" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E10" s="78" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F10" s="79" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G10" s="1">
         <v>44292</v>
@@ -3437,16 +3529,16 @@
     <row r="11" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="122"/>
       <c r="C11" s="81" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D11" s="75" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="75" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F11" s="82" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G11" s="1">
         <v>44294</v>
@@ -3459,19 +3551,19 @@
     </row>
     <row r="12" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="123" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C12" s="83" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F12" s="84" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G12" s="1">
         <v>44296</v>
@@ -3485,16 +3577,16 @@
     <row r="13" spans="2:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="124"/>
       <c r="C13" s="85" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D13" s="86" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="86" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G13" s="1">
         <v>44299</v>
@@ -3508,10 +3600,10 @@
     <row r="14" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="125"/>
       <c r="C14" s="93" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D14" s="94" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E14" s="95"/>
       <c r="F14" s="96"/>
@@ -3527,16 +3619,16 @@
     <row r="15" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="126"/>
       <c r="C15" s="97" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F15" s="98" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G15" s="1">
         <v>44301</v>
@@ -3549,15 +3641,15 @@
     </row>
     <row r="16" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="126" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C16" s="99"/>
       <c r="D16" s="12"/>
       <c r="E16" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="100" t="s">
         <v>120</v>
-      </c>
-      <c r="F16" s="100" t="s">
-        <v>125</v>
       </c>
       <c r="G16" s="1">
         <v>44301</v>
@@ -3571,16 +3663,16 @@
     <row r="17" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="126"/>
       <c r="C17" s="101" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F17" s="98" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G17" s="1">
         <v>44301</v>
@@ -3594,16 +3686,16 @@
     <row r="18" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="127"/>
       <c r="C18" s="102" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D18" s="103" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="103" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F18" s="104" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G18" s="1">
         <v>44301</v>
@@ -3619,7 +3711,7 @@
       <c r="C19" s="132"/>
       <c r="D19" s="133"/>
       <c r="E19" s="133" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F19" s="148"/>
       <c r="G19" s="1">
@@ -3636,7 +3728,7 @@
       <c r="C20" s="135"/>
       <c r="D20" s="136"/>
       <c r="E20" s="136" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F20" s="149"/>
       <c r="G20" s="150">
@@ -3701,8 +3793,8 @@
   </sheetPr>
   <dimension ref="C3:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3799,14 +3891,14 @@
     <row r="8" spans="3:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="49"/>
       <c r="F8" s="17" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I8" s="112" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J8" s="115"/>
       <c r="K8" s="116" t="s">
@@ -3824,11 +3916,11 @@
     <row r="9" spans="3:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="49"/>
       <c r="F9" s="105" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="19" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I9" s="106" t="s">
         <v>15</v>
@@ -3848,11 +3940,11 @@
       </c>
       <c r="D10" s="49"/>
       <c r="F10" s="105" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I10" s="111" t="s">
         <v>47</v>
@@ -3864,7 +3956,7 @@
         <v>18</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N10" s="38" t="s">
         <v>33</v>
@@ -3878,7 +3970,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I11" s="109" t="s">
         <v>0</v>
@@ -4088,10 +4180,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C1:P38"/>
+  <dimension ref="C1:Q38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32:K34"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4104,65 +4196,84 @@
     <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:17" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="3:16" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="3:17" x14ac:dyDescent="0.25">
       <c r="E2" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F3" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" t="s">
+        <v>170</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F3" s="152" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="153" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" t="str">
+        <f>I2</f>
+        <v xml:space="preserve">Unique </v>
+      </c>
+      <c r="O3" s="154"/>
+      <c r="P3" s="155" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F4" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="G3" t="s">
-        <v>141</v>
-      </c>
-      <c r="O3" s="51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F4" s="65" t="s">
-        <v>50</v>
-      </c>
       <c r="G4" t="s">
-        <v>142</v>
-      </c>
-      <c r="O4" s="66"/>
-      <c r="P4" s="53"/>
-    </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="O4" s="12"/>
+      <c r="P4" s="156"/>
+      <c r="Q4" s="157"/>
+    </row>
+    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
       <c r="E5" s="34"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="55"/>
-    </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="O6" s="67"/>
-      <c r="P6" s="55"/>
-    </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="O5" s="12"/>
+      <c r="P5" s="158"/>
+      <c r="Q5" s="159"/>
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="O6" s="12"/>
+      <c r="P6" s="158"/>
+      <c r="Q6" s="159"/>
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
       <c r="E7" s="58" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
-      </c>
-      <c r="O7" s="67"/>
-      <c r="P7" s="55"/>
-    </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="158"/>
+      <c r="Q7" s="159"/>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F8" s="88" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G8" s="89"/>
       <c r="H8" s="60"/>
@@ -4171,54 +4282,53 @@
       <c r="K8" s="60"/>
       <c r="L8" s="60"/>
       <c r="M8" s="53"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="55"/>
-    </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="O8" s="12"/>
+      <c r="P8" s="158"/>
+      <c r="Q8" s="159"/>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F9" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>77</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="55"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="55"/>
-    </row>
-    <row r="10" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O9" s="12"/>
+      <c r="P9" s="158"/>
+      <c r="Q9" s="159"/>
+    </row>
+    <row r="10" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F10" s="62" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="55"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="55"/>
-    </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="O10" s="12"/>
+      <c r="P10" s="158"/>
+      <c r="Q10" s="159"/>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C11" s="118" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F11" s="62" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -4226,66 +4336,70 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="55"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="57"/>
-    </row>
-    <row r="12" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O11" s="12"/>
+      <c r="P11" s="158"/>
+      <c r="Q11" s="159"/>
+    </row>
+    <row r="12" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="119" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F12" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="I12" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="J12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>58</v>
-      </c>
       <c r="K12" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="55"/>
-    </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="O12" s="12"/>
+      <c r="P12" s="160"/>
+      <c r="Q12" s="161"/>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F13" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="J13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="12" t="s">
+      <c r="L13" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="M13" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F14" s="62" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -4294,12 +4408,12 @@
       <c r="L14" s="12"/>
       <c r="M14" s="55"/>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F15" s="63" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G15" s="72" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H15" s="61"/>
       <c r="I15" s="61"/>
@@ -4313,16 +4427,16 @@
     </row>
     <row r="18" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E18" s="73" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F18" s="88" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G18" s="89"/>
     </row>
     <row r="19" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F19" s="52" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G19" s="60">
         <v>20</v>
@@ -4331,41 +4445,41 @@
         <v>25</v>
       </c>
       <c r="I19" s="69" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F20" s="54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I20" s="70" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F21" s="54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="70" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F22" s="56" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G22" s="61"/>
       <c r="H22" s="61"/>
       <c r="I22" s="71" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="5:15" x14ac:dyDescent="0.25">
@@ -4373,53 +4487,53 @@
     </row>
     <row r="24" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E24" s="73" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F25" s="88" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G25" s="89"/>
       <c r="O25" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F26" s="66" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G26" s="60" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H26" s="60"/>
       <c r="I26" s="53"/>
       <c r="K26" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F27" s="67" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="55"/>
       <c r="O27" s="51" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F28" s="67" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="55"/>
       <c r="O28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="5:15" x14ac:dyDescent="0.25">
@@ -4428,66 +4542,66 @@
       <c r="H29" s="61"/>
       <c r="I29" s="57"/>
       <c r="O29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E31" s="74" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F31" s="114" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G32" s="10" t="b">
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G33" s="10" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G34" s="10" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I34" s="90" t="b">
         <v>1</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="5:10" x14ac:dyDescent="0.25">
@@ -4507,9 +4621,12 @@
       <c r="F38" s="37"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{B1515359-AAAB-4136-AEBA-714E44CCBA99}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup scale="80" orientation="landscape" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4532,7 +4649,7 @@
         <v>30</v>
       </c>
       <c r="C1" s="92" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D1" s="92" t="s">
         <v>31</v>
@@ -4540,7 +4657,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4563,10 +4680,10 @@
   <sheetData>
     <row r="3" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="4:7" x14ac:dyDescent="0.25">
@@ -4577,29 +4694,29 @@
         <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" t="s">
         <v>133</v>
-      </c>
-      <c r="G5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="4:7" x14ac:dyDescent="0.25">
@@ -4610,17 +4727,17 @@
     </row>
     <row r="11" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E11" t="str">
         <f>E5</f>
         <v>Read Bio</v>
       </c>
       <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
         <v>133</v>
-      </c>
-      <c r="G11" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/references/Dating.xlsx
+++ b/references/Dating.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wodah\Documents\.Woda\Projects\Dating\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D50D26-F6E3-4D91-A486-EC7C839FB11C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D44E595-3469-47BC-A664-050C1F9ADFDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="285" windowWidth="20610" windowHeight="14355" activeTab="2" xr2:uid="{78A2A3F8-0A39-47A2-96E5-D1FFE72D8D4A}"/>
+    <workbookView xWindow="2445" yWindow="825" windowWidth="20610" windowHeight="14355" activeTab="2" xr2:uid="{78A2A3F8-0A39-47A2-96E5-D1FFE72D8D4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="175">
   <si>
     <t>Questionaire</t>
   </si>
@@ -554,6 +554,12 @@
   </si>
   <si>
     <t>check for availabliltiy user experience table</t>
+  </si>
+  <si>
+    <t>Hary</t>
+  </si>
+  <si>
+    <t>Lary</t>
   </si>
 </sst>
 </file>
@@ -4183,7 +4189,7 @@
   <dimension ref="C1:Q38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4229,7 +4235,7 @@
       <c r="G3" s="153" t="s">
         <v>167</v>
       </c>
-      <c r="I3" t="str">
+      <c r="I3" s="10" t="str">
         <f>I2</f>
         <v xml:space="preserve">Unique </v>
       </c>
@@ -4246,18 +4252,24 @@
         <v>168</v>
       </c>
       <c r="O4" s="12"/>
-      <c r="P4" s="156"/>
+      <c r="P4" s="156" t="s">
+        <v>126</v>
+      </c>
       <c r="Q4" s="157"/>
     </row>
     <row r="5" spans="3:17" x14ac:dyDescent="0.25">
       <c r="E5" s="34"/>
       <c r="O5" s="12"/>
-      <c r="P5" s="158"/>
+      <c r="P5" s="158" t="s">
+        <v>173</v>
+      </c>
       <c r="Q5" s="159"/>
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.25">
       <c r="O6" s="12"/>
-      <c r="P6" s="158"/>
+      <c r="P6" s="158" t="s">
+        <v>174</v>
+      </c>
       <c r="Q6" s="159"/>
     </row>
     <row r="7" spans="3:17" x14ac:dyDescent="0.25">

--- a/references/Dating.xlsx
+++ b/references/Dating.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wodah\Documents\.Woda\Projects\Dating\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D44E595-3469-47BC-A664-050C1F9ADFDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D050FEBD-D5A0-4AB7-8D93-E5D3882A535D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="825" windowWidth="20610" windowHeight="14355" activeTab="2" xr2:uid="{78A2A3F8-0A39-47A2-96E5-D1FFE72D8D4A}"/>
+    <workbookView xWindow="2910" yWindow="540" windowWidth="22545" windowHeight="14355" activeTab="2" xr2:uid="{78A2A3F8-0A39-47A2-96E5-D1FFE72D8D4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Database!$C$1:$R$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Database!$C$1:$R$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Overview!$C$3:$P$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Plan!$B$1:$H$20</definedName>
   </definedNames>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="171">
   <si>
     <t>Questionaire</t>
   </si>
@@ -544,22 +544,10 @@
     <t>********</t>
   </si>
   <si>
-    <t xml:space="preserve">Unique </t>
-  </si>
-  <si>
-    <t>(forces unique screen names for all users by default)</t>
-  </si>
-  <si>
-    <t>UserName Table</t>
-  </si>
-  <si>
-    <t>check for availabliltiy user experience table</t>
-  </si>
-  <si>
-    <t>Hary</t>
-  </si>
-  <si>
-    <t>Lary</t>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>zip code</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1767,20 +1755,15 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="59" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="59" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2597,13 +2580,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2650,13 +2633,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2815,7 +2798,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2868,7 +2851,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2921,7 +2904,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2939,112 +2922,6 @@
         <a:xfrm>
           <a:off x="1905000" y="2314575"/>
           <a:ext cx="1752600" cy="3514725"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A96A671-13E6-431C-9DFF-2B157851322E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5848350" y="342900"/>
-          <a:ext cx="3695700" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6309D6-1C2E-4A4B-8D2A-4C1C91736249}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5876925" y="419100"/>
-          <a:ext cx="3676650" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3375,8 +3252,8 @@
   </sheetPr>
   <dimension ref="B1:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3385,7 +3262,7 @@
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -3470,7 +3347,7 @@
       <c r="D8" s="130"/>
       <c r="E8" s="130"/>
       <c r="F8" s="147"/>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>44287</v>
       </c>
       <c r="H8" s="138">
@@ -3481,7 +3358,7 @@
       </c>
       <c r="J8" s="1">
         <f ca="1">TODAY()</f>
-        <v>44289</v>
+        <v>44292</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3500,12 +3377,14 @@
       <c r="F9" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>44292</v>
       </c>
-      <c r="H9" s="138"/>
+      <c r="H9" s="138">
+        <v>44292</v>
+      </c>
       <c r="I9">
-        <f ca="1">IF(H9="",IF($J$8&gt;G9,1,0),0)</f>
+        <f>IF(H9="",IF($J$8&gt;G9,1,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3523,12 +3402,14 @@
       <c r="F10" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>44292</v>
       </c>
-      <c r="H10" s="55"/>
+      <c r="H10" s="138">
+        <v>44292</v>
+      </c>
       <c r="I10">
-        <f t="shared" ref="I10:I20" ca="1" si="0">IF(H10="",IF($J$8&gt;G10,1,0),0)</f>
+        <f t="shared" ref="I10:I20" si="0">IF(H10="",IF($J$8&gt;G10,1,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3546,8 +3427,8 @@
       <c r="F11" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="1">
-        <v>44294</v>
+      <c r="G11" s="2">
+        <v>44296</v>
       </c>
       <c r="H11" s="55"/>
       <c r="I11">
@@ -3571,7 +3452,7 @@
       <c r="F12" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>44296</v>
       </c>
       <c r="H12" s="55"/>
@@ -3594,8 +3475,8 @@
       <c r="F13" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="G13" s="1">
-        <v>44299</v>
+      <c r="G13" s="2">
+        <v>44296</v>
       </c>
       <c r="H13" s="55"/>
       <c r="I13">
@@ -3613,7 +3494,7 @@
       </c>
       <c r="E14" s="95"/>
       <c r="F14" s="96"/>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>44301</v>
       </c>
       <c r="H14" s="55"/>
@@ -3636,7 +3517,7 @@
       <c r="F15" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>44301</v>
       </c>
       <c r="H15" s="55"/>
@@ -3657,7 +3538,7 @@
       <c r="F16" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <v>44301</v>
       </c>
       <c r="H16" s="55"/>
@@ -3680,7 +3561,7 @@
       <c r="F17" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <v>44301</v>
       </c>
       <c r="H17" s="55"/>
@@ -3703,7 +3584,7 @@
       <c r="F18" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <v>44301</v>
       </c>
       <c r="H18" s="55"/>
@@ -3720,7 +3601,7 @@
         <v>161</v>
       </c>
       <c r="F19" s="148"/>
-      <c r="G19" s="1">
+      <c r="G19" s="2">
         <v>44303</v>
       </c>
       <c r="H19" s="141"/>
@@ -3737,10 +3618,10 @@
         <v>162</v>
       </c>
       <c r="F20" s="149"/>
-      <c r="G20" s="150">
+      <c r="G20" s="154">
         <v>44306</v>
       </c>
-      <c r="H20" s="151"/>
+      <c r="H20" s="150"/>
       <c r="I20">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
@@ -4186,10 +4067,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C1:Q38"/>
+  <dimension ref="C1:S39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4202,12 +4083,12 @@
     <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E2" s="59" t="s">
         <v>151</v>
       </c>
@@ -4217,34 +4098,28 @@
       <c r="G2" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="J2" t="s">
-        <v>170</v>
-      </c>
+      <c r="I2" s="10"/>
       <c r="O2" s="12"/>
-      <c r="P2" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="F3" s="152" t="s">
+      <c r="P2" s="155"/>
+      <c r="Q2" s="155"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="155"/>
+    </row>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F3" s="151" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="153" t="s">
+      <c r="G3" s="152" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="10" t="str">
-        <f>I2</f>
-        <v xml:space="preserve">Unique </v>
-      </c>
-      <c r="O3" s="154"/>
-      <c r="P3" s="155" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="I3" s="10"/>
+      <c r="O3" s="153"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="155"/>
+      <c r="R3" s="155"/>
+      <c r="S3" s="155"/>
+    </row>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F4" s="65" t="s">
         <v>48</v>
       </c>
@@ -4252,27 +4127,27 @@
         <v>168</v>
       </c>
       <c r="O4" s="12"/>
-      <c r="P4" s="156" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q4" s="157"/>
-    </row>
-    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="P4" s="155"/>
+      <c r="Q4" s="155"/>
+      <c r="R4" s="155"/>
+      <c r="S4" s="155"/>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E5" s="34"/>
       <c r="O5" s="12"/>
-      <c r="P5" s="158" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q5" s="159"/>
-    </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="155"/>
+      <c r="Q5" s="155"/>
+      <c r="R5" s="155"/>
+      <c r="S5" s="155"/>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
       <c r="O6" s="12"/>
-      <c r="P6" s="158" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q6" s="159"/>
-    </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="P6" s="155"/>
+      <c r="Q6" s="155"/>
+      <c r="R6" s="155"/>
+      <c r="S6" s="155"/>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E7" s="58" t="s">
         <v>150</v>
       </c>
@@ -4280,10 +4155,12 @@
         <v>137</v>
       </c>
       <c r="O7" s="12"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="159"/>
-    </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="155"/>
+      <c r="Q7" s="155"/>
+      <c r="R7" s="155"/>
+      <c r="S7" s="155"/>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F8" s="88" t="s">
         <v>51</v>
       </c>
@@ -4295,10 +4172,12 @@
       <c r="L8" s="60"/>
       <c r="M8" s="53"/>
       <c r="O8" s="12"/>
-      <c r="P8" s="158"/>
-      <c r="Q8" s="159"/>
-    </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="P8" s="155"/>
+      <c r="Q8" s="155"/>
+      <c r="R8" s="155"/>
+      <c r="S8" s="155"/>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F9" s="62" t="s">
         <v>165</v>
       </c>
@@ -4310,10 +4189,12 @@
       <c r="L9" s="12"/>
       <c r="M9" s="55"/>
       <c r="O9" s="12"/>
-      <c r="P9" s="158"/>
-      <c r="Q9" s="159"/>
-    </row>
-    <row r="10" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P9" s="155"/>
+      <c r="Q9" s="155"/>
+      <c r="R9" s="155"/>
+      <c r="S9" s="155"/>
+    </row>
+    <row r="10" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F10" s="62" t="s">
         <v>49</v>
       </c>
@@ -4329,10 +4210,12 @@
       <c r="L10" s="12"/>
       <c r="M10" s="55"/>
       <c r="O10" s="12"/>
-      <c r="P10" s="158"/>
-      <c r="Q10" s="159"/>
-    </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="P10" s="155"/>
+      <c r="Q10" s="155"/>
+      <c r="R10" s="155"/>
+      <c r="S10" s="155"/>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C11" s="118" t="s">
         <v>144</v>
       </c>
@@ -4349,10 +4232,12 @@
       <c r="L11" s="12"/>
       <c r="M11" s="55"/>
       <c r="O11" s="12"/>
-      <c r="P11" s="158"/>
-      <c r="Q11" s="159"/>
-    </row>
-    <row r="12" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P11" s="155"/>
+      <c r="Q11" s="155"/>
+      <c r="R11" s="155"/>
+      <c r="S11" s="155"/>
+    </row>
+    <row r="12" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="119" t="s">
         <v>143</v>
       </c>
@@ -4377,10 +4262,12 @@
       <c r="L12" s="12"/>
       <c r="M12" s="55"/>
       <c r="O12" s="12"/>
-      <c r="P12" s="160"/>
-      <c r="Q12" s="161"/>
-    </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="P12" s="155"/>
+      <c r="Q12" s="155"/>
+      <c r="R12" s="155"/>
+      <c r="S12" s="155"/>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F13" s="62" t="s">
         <v>62</v>
       </c>
@@ -4405,13 +4292,17 @@
       <c r="M13" s="55" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="P13" s="155"/>
+      <c r="Q13" s="155"/>
+      <c r="R13" s="155"/>
+      <c r="S13" s="155"/>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F14" s="62" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -4419,189 +4310,190 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="55"/>
-    </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="F15" s="63" t="s">
+      <c r="P14" s="155"/>
+      <c r="Q14" s="155"/>
+      <c r="R14" s="155"/>
+      <c r="S14" s="155"/>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F15" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="55"/>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F16" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="72" t="s">
+      <c r="G16" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="57"/>
-    </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E17" s="50"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="57"/>
     </row>
     <row r="18" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E18" s="73" t="s">
+      <c r="E18" s="50"/>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E19" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="F18" s="88" t="s">
+      <c r="F19" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="89"/>
-    </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="F19" s="52" t="s">
+      <c r="G19" s="89"/>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F20" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="60">
+      <c r="G20" s="60">
         <v>20</v>
       </c>
-      <c r="H19" s="60">
+      <c r="H20" s="60">
         <v>25</v>
       </c>
-      <c r="I19" s="69" t="s">
+      <c r="I20" s="69" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="F20" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="70" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="21" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F21" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F22" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="70" t="s">
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="70" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="F22" s="56" t="s">
+    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F23" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="71" t="s">
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="F23" s="34"/>
-    </row>
     <row r="24" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E24" s="73" t="s">
+      <c r="F24" s="34"/>
+    </row>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E25" s="73" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="F25" s="88" t="s">
+    <row r="26" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F26" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="89"/>
-      <c r="O25" t="s">
+      <c r="G26" s="89"/>
+      <c r="O26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="F26" s="66" t="s">
+    <row r="27" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F27" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="60" t="s">
+      <c r="G27" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="H26" s="60"/>
-      <c r="I26" s="53"/>
-      <c r="K26" t="s">
+      <c r="H27" s="60"/>
+      <c r="I27" s="53"/>
+      <c r="K27" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="F27" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="55"/>
-      <c r="O27" s="51" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="28" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F28" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="12"/>
+        <v>76</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="H28" s="12"/>
       <c r="I28" s="55"/>
-      <c r="O28" t="s">
+      <c r="O28" s="51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F29" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="55"/>
+      <c r="O29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="F29" s="68"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="57"/>
-      <c r="O29" t="s">
+    <row r="30" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F30" s="68"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="57"/>
+      <c r="O30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E31" s="74" t="s">
+    <row r="32" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E32" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="F31" s="114" t="s">
+      <c r="F32" s="114" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="F32" t="s">
-        <v>85</v>
-      </c>
-      <c r="G32" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" t="s">
-        <v>71</v>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G33" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
         <v>71</v>
       </c>
       <c r="I33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="G34" s="10" t="b">
         <v>0</v>
@@ -4609,19 +4501,32 @@
       <c r="H34" t="s">
         <v>71</v>
       </c>
-      <c r="I34" s="90" t="b">
+      <c r="I34" t="b">
         <v>1</v>
       </c>
       <c r="J34" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35" s="90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E35" s="113"/>
-      <c r="F35" s="37"/>
-    </row>
     <row r="36" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E36" s="37"/>
+      <c r="E36" s="113"/>
       <c r="F36" s="37"/>
     </row>
     <row r="37" spans="5:10" x14ac:dyDescent="0.25">
@@ -4631,6 +4536,10 @@
     <row r="38" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
+    </row>
+    <row r="39" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4820,7 +4729,7 @@
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F12" s="1">
         <f ca="1">TODAY()</f>
-        <v>44289</v>
+        <v>44292</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
@@ -4830,7 +4739,7 @@
       </c>
       <c r="F13" s="2">
         <f ca="1">F12+90</f>
-        <v>44379</v>
+        <v>44382</v>
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
@@ -4839,7 +4748,7 @@
       </c>
       <c r="F14" s="1">
         <f ca="1">F12+35</f>
-        <v>44324</v>
+        <v>44327</v>
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">

--- a/references/Dating.xlsx
+++ b/references/Dating.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wodah\Documents\.Woda\Projects\Dating\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D050FEBD-D5A0-4AB7-8D93-E5D3882A535D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F51E6D-6249-471B-ABF2-0D809196C4C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="540" windowWidth="22545" windowHeight="14355" activeTab="2" xr2:uid="{78A2A3F8-0A39-47A2-96E5-D1FFE72D8D4A}"/>
+    <workbookView xWindow="2910" yWindow="540" windowWidth="22545" windowHeight="14355" xr2:uid="{78A2A3F8-0A39-47A2-96E5-D1FFE72D8D4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="4" r:id="rId1"/>
@@ -557,7 +557,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,8 +636,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -734,6 +740,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="61">
     <border>
@@ -1406,7 +1418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1727,7 +1739,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1764,12 +1775,26 @@
     <xf numFmtId="164" fontId="0" fillId="7" borderId="59" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3252,8 +3277,8 @@
   </sheetPr>
   <dimension ref="B1:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3298,26 +3323,26 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="142"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="144" t="s">
+      <c r="B6" s="141"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="143" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="144" t="s">
+      <c r="E6" s="143" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="144" t="s">
+      <c r="F6" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="144" t="s">
+      <c r="G6" s="143" t="s">
         <v>153</v>
       </c>
-      <c r="H6" s="145" t="s">
+      <c r="H6" s="144" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="138" t="s">
         <v>159</v>
       </c>
       <c r="C7" s="129" t="s">
@@ -3329,7 +3354,7 @@
       <c r="E7" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="146" t="s">
+      <c r="F7" s="145" t="s">
         <v>95</v>
       </c>
       <c r="G7" s="18" t="s">
@@ -3340,17 +3365,17 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="140"/>
+      <c r="B8" s="139"/>
       <c r="C8" s="129" t="s">
         <v>160</v>
       </c>
       <c r="D8" s="130"/>
       <c r="E8" s="130"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="2">
+      <c r="F8" s="146"/>
+      <c r="G8" s="157">
         <v>44287</v>
       </c>
-      <c r="H8" s="138">
+      <c r="H8" s="156">
         <v>44287</v>
       </c>
       <c r="I8">
@@ -3377,10 +3402,10 @@
       <c r="F9" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="157">
         <v>44292</v>
       </c>
-      <c r="H9" s="138">
+      <c r="H9" s="156">
         <v>44292</v>
       </c>
       <c r="I9">
@@ -3402,10 +3427,10 @@
       <c r="F10" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="157">
         <v>44292</v>
       </c>
-      <c r="H10" s="138">
+      <c r="H10" s="156">
         <v>44292</v>
       </c>
       <c r="I10">
@@ -3600,11 +3625,11 @@
       <c r="E19" s="133" t="s">
         <v>161</v>
       </c>
-      <c r="F19" s="148"/>
+      <c r="F19" s="147"/>
       <c r="G19" s="2">
         <v>44303</v>
       </c>
-      <c r="H19" s="141"/>
+      <c r="H19" s="140"/>
       <c r="I19">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
@@ -3617,11 +3642,11 @@
       <c r="E20" s="136" t="s">
         <v>162</v>
       </c>
-      <c r="F20" s="149"/>
-      <c r="G20" s="154">
+      <c r="F20" s="148"/>
+      <c r="G20" s="153">
         <v>44306</v>
       </c>
-      <c r="H20" s="150"/>
+      <c r="H20" s="149"/>
       <c r="I20">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
@@ -3659,12 +3684,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>I9=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:G19">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>I10=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4069,7 +4094,7 @@
   </sheetPr>
   <dimension ref="C1:S39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -4100,24 +4125,24 @@
       </c>
       <c r="I2" s="10"/>
       <c r="O2" s="12"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="154"/>
     </row>
     <row r="3" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="F3" s="151" t="s">
+      <c r="F3" s="150" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="152" t="s">
+      <c r="G3" s="151" t="s">
         <v>167</v>
       </c>
       <c r="I3" s="10"/>
-      <c r="O3" s="153"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="155"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="155"/>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="154"/>
+      <c r="S3" s="154"/>
     </row>
     <row r="4" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F4" s="65" t="s">
@@ -4127,25 +4152,25 @@
         <v>168</v>
       </c>
       <c r="O4" s="12"/>
-      <c r="P4" s="155"/>
-      <c r="Q4" s="155"/>
-      <c r="R4" s="155"/>
-      <c r="S4" s="155"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="154"/>
+      <c r="S4" s="154"/>
     </row>
     <row r="5" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E5" s="34"/>
       <c r="O5" s="12"/>
-      <c r="P5" s="155"/>
-      <c r="Q5" s="155"/>
-      <c r="R5" s="155"/>
-      <c r="S5" s="155"/>
+      <c r="P5" s="154"/>
+      <c r="Q5" s="154"/>
+      <c r="R5" s="154"/>
+      <c r="S5" s="154"/>
     </row>
     <row r="6" spans="3:19" x14ac:dyDescent="0.25">
       <c r="O6" s="12"/>
-      <c r="P6" s="155"/>
-      <c r="Q6" s="155"/>
-      <c r="R6" s="155"/>
-      <c r="S6" s="155"/>
+      <c r="P6" s="154"/>
+      <c r="Q6" s="154"/>
+      <c r="R6" s="154"/>
+      <c r="S6" s="154"/>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E7" s="58" t="s">
@@ -4155,10 +4180,10 @@
         <v>137</v>
       </c>
       <c r="O7" s="12"/>
-      <c r="P7" s="155"/>
-      <c r="Q7" s="155"/>
-      <c r="R7" s="155"/>
-      <c r="S7" s="155"/>
+      <c r="P7" s="154"/>
+      <c r="Q7" s="154"/>
+      <c r="R7" s="154"/>
+      <c r="S7" s="154"/>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F8" s="88" t="s">
@@ -4172,10 +4197,10 @@
       <c r="L8" s="60"/>
       <c r="M8" s="53"/>
       <c r="O8" s="12"/>
-      <c r="P8" s="155"/>
-      <c r="Q8" s="155"/>
-      <c r="R8" s="155"/>
-      <c r="S8" s="155"/>
+      <c r="P8" s="154"/>
+      <c r="Q8" s="154"/>
+      <c r="R8" s="154"/>
+      <c r="S8" s="154"/>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F9" s="62" t="s">
@@ -4189,10 +4214,10 @@
       <c r="L9" s="12"/>
       <c r="M9" s="55"/>
       <c r="O9" s="12"/>
-      <c r="P9" s="155"/>
-      <c r="Q9" s="155"/>
-      <c r="R9" s="155"/>
-      <c r="S9" s="155"/>
+      <c r="P9" s="154"/>
+      <c r="Q9" s="154"/>
+      <c r="R9" s="154"/>
+      <c r="S9" s="154"/>
     </row>
     <row r="10" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F10" s="62" t="s">
@@ -4210,10 +4235,10 @@
       <c r="L10" s="12"/>
       <c r="M10" s="55"/>
       <c r="O10" s="12"/>
-      <c r="P10" s="155"/>
-      <c r="Q10" s="155"/>
-      <c r="R10" s="155"/>
-      <c r="S10" s="155"/>
+      <c r="P10" s="154"/>
+      <c r="Q10" s="154"/>
+      <c r="R10" s="154"/>
+      <c r="S10" s="154"/>
     </row>
     <row r="11" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C11" s="118" t="s">
@@ -4232,10 +4257,10 @@
       <c r="L11" s="12"/>
       <c r="M11" s="55"/>
       <c r="O11" s="12"/>
-      <c r="P11" s="155"/>
-      <c r="Q11" s="155"/>
-      <c r="R11" s="155"/>
-      <c r="S11" s="155"/>
+      <c r="P11" s="154"/>
+      <c r="Q11" s="154"/>
+      <c r="R11" s="154"/>
+      <c r="S11" s="154"/>
     </row>
     <row r="12" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="119" t="s">
@@ -4262,10 +4287,10 @@
       <c r="L12" s="12"/>
       <c r="M12" s="55"/>
       <c r="O12" s="12"/>
-      <c r="P12" s="155"/>
-      <c r="Q12" s="155"/>
-      <c r="R12" s="155"/>
-      <c r="S12" s="155"/>
+      <c r="P12" s="154"/>
+      <c r="Q12" s="154"/>
+      <c r="R12" s="154"/>
+      <c r="S12" s="154"/>
     </row>
     <row r="13" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F13" s="62" t="s">
@@ -4292,10 +4317,10 @@
       <c r="M13" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="P13" s="155"/>
-      <c r="Q13" s="155"/>
-      <c r="R13" s="155"/>
-      <c r="S13" s="155"/>
+      <c r="P13" s="154"/>
+      <c r="Q13" s="154"/>
+      <c r="R13" s="154"/>
+      <c r="S13" s="154"/>
     </row>
     <row r="14" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F14" s="62" t="s">
@@ -4310,10 +4335,10 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="55"/>
-      <c r="P14" s="155"/>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="155"/>
-      <c r="S14" s="155"/>
+      <c r="P14" s="154"/>
+      <c r="Q14" s="154"/>
+      <c r="R14" s="154"/>
+      <c r="S14" s="154"/>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F15" s="62" t="s">
